--- a/animations/4-pulsar.xlsx
+++ b/animations/4-pulsar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Documents/witch-lights/animations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EEB441D2-E998-C94D-ACC8-E502DE04D4E6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{56E0E6B9-4490-4B41-9653-7F07E2576A24}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="4460" windowWidth="48160" windowHeight="18080"/>
   </bookViews>
@@ -546,21 +546,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -885,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI16"/>
+  <dimension ref="A1:CI12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="AZ16" sqref="AZ16"/>
+      <selection activeCell="AR23" sqref="AR23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1189,122 +1175,6 @@
         <v>6</v>
       </c>
       <c r="AS12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="AM13">
-        <v>2</v>
-      </c>
-      <c r="AN13">
-        <v>4</v>
-      </c>
-      <c r="AO13">
-        <v>6</v>
-      </c>
-      <c r="AP13">
-        <v>8</v>
-      </c>
-      <c r="AQ13">
-        <v>6</v>
-      </c>
-      <c r="AR13">
-        <v>8</v>
-      </c>
-      <c r="AS13">
-        <v>6</v>
-      </c>
-      <c r="AT13">
-        <v>4</v>
-      </c>
-      <c r="AU13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="AM14">
-        <v>2</v>
-      </c>
-      <c r="AN14">
-        <v>4</v>
-      </c>
-      <c r="AO14">
-        <v>6</v>
-      </c>
-      <c r="AP14">
-        <v>8</v>
-      </c>
-      <c r="AQ14">
-        <v>6</v>
-      </c>
-      <c r="AR14">
-        <v>8</v>
-      </c>
-      <c r="AS14">
-        <v>6</v>
-      </c>
-      <c r="AT14">
-        <v>4</v>
-      </c>
-      <c r="AU14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="AM15">
-        <v>2</v>
-      </c>
-      <c r="AN15">
-        <v>4</v>
-      </c>
-      <c r="AO15">
-        <v>6</v>
-      </c>
-      <c r="AP15">
-        <v>8</v>
-      </c>
-      <c r="AQ15">
-        <v>6</v>
-      </c>
-      <c r="AR15">
-        <v>8</v>
-      </c>
-      <c r="AS15">
-        <v>6</v>
-      </c>
-      <c r="AT15">
-        <v>4</v>
-      </c>
-      <c r="AU15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.2">
-      <c r="AM16">
-        <v>2</v>
-      </c>
-      <c r="AN16">
-        <v>4</v>
-      </c>
-      <c r="AO16">
-        <v>6</v>
-      </c>
-      <c r="AP16">
-        <v>8</v>
-      </c>
-      <c r="AQ16">
-        <v>6</v>
-      </c>
-      <c r="AR16">
-        <v>8</v>
-      </c>
-      <c r="AS16">
-        <v>6</v>
-      </c>
-      <c r="AT16">
-        <v>4</v>
-      </c>
-      <c r="AU16">
         <v>2</v>
       </c>
     </row>
@@ -1320,7 +1190,7 @@
         <color rgb="FFF5F0FF"/>
       </colorScale>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="3">
+    <cfRule type="containsBlanks" dxfId="0" priority="3">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
